--- a/2603639401RptIrcaMensualMun622.xlsx
+++ b/2603639401RptIrcaMensualMun622.xlsx
@@ -1,21 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juan1\Desktop\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laura\Documents\GrupoEvoluciona\archivos excel\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D39A4546-593D-4A79-B80B-6234A78BD6C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE89813B-8B04-44B9-88B8-6F0620E52BBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2603639401RptIrcaMensualMun622" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -223,7 +235,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -360,7 +372,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -540,6 +552,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -701,8 +719,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1057,14 +1076,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="7" max="7" width="10.90625" style="1"/>
+    <col min="9" max="9" width="10.90625" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1083,20 +1108,20 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="J1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2020</v>
       </c>
@@ -1115,20 +1140,20 @@
       <c r="F2" t="s">
         <v>12</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="1">
         <v>4</v>
       </c>
       <c r="H2">
         <v>53</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="1">
         <v>39.823</v>
       </c>
       <c r="J2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2021</v>
       </c>
@@ -1147,20 +1172,20 @@
       <c r="F3" t="s">
         <v>12</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="1">
         <v>3</v>
       </c>
       <c r="H3">
         <v>53</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="1">
         <v>56.224800000000002</v>
       </c>
       <c r="J3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2022</v>
       </c>
@@ -1179,20 +1204,20 @@
       <c r="F4" t="s">
         <v>12</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="1">
         <v>2</v>
       </c>
       <c r="H4">
         <v>53</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="1">
         <v>36.144500000000001</v>
       </c>
       <c r="J4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2021</v>
       </c>
@@ -1211,20 +1236,20 @@
       <c r="F5" t="s">
         <v>12</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="1">
         <v>5</v>
       </c>
       <c r="H5">
         <v>41</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="1">
         <v>84.337299999999999</v>
       </c>
       <c r="J5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2022</v>
       </c>
@@ -1243,20 +1268,20 @@
       <c r="F6" t="s">
         <v>12</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="1">
         <v>2</v>
       </c>
       <c r="H6">
         <v>41</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="1">
         <v>68</v>
       </c>
       <c r="J6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2021</v>
       </c>
@@ -1275,20 +1300,20 @@
       <c r="F7" t="s">
         <v>12</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="1">
         <v>3</v>
       </c>
       <c r="H7">
         <v>42</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="1">
         <v>42.666699999999999</v>
       </c>
       <c r="J7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2022</v>
       </c>
@@ -1307,20 +1332,20 @@
       <c r="F8" t="s">
         <v>12</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="1">
         <v>1</v>
       </c>
       <c r="H8">
         <v>42</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="1">
         <v>70.967699999999994</v>
       </c>
       <c r="J8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>2020</v>
       </c>
@@ -1339,20 +1364,20 @@
       <c r="F9" t="s">
         <v>12</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="1">
         <v>15</v>
       </c>
       <c r="H9">
         <v>184</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="1">
         <v>33.100200000000001</v>
       </c>
       <c r="J9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2021</v>
       </c>
@@ -1371,20 +1396,20 @@
       <c r="F10" t="s">
         <v>12</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="1">
         <v>5</v>
       </c>
       <c r="H10">
         <v>184</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="1">
         <v>83.1858</v>
       </c>
       <c r="J10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>2020</v>
       </c>
@@ -1403,20 +1428,20 @@
       <c r="F11" t="s">
         <v>12</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="1">
         <v>4</v>
       </c>
       <c r="H11">
         <v>26</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="1">
         <v>53.097299999999997</v>
       </c>
       <c r="J11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>2021</v>
       </c>
@@ -1435,20 +1460,20 @@
       <c r="F12" t="s">
         <v>12</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="1">
         <v>3</v>
       </c>
       <c r="H12">
         <v>9</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="1">
         <v>100</v>
       </c>
       <c r="J12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>2020</v>
       </c>
@@ -1467,20 +1492,20 @@
       <c r="F13" t="s">
         <v>12</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="1">
         <v>1</v>
       </c>
       <c r="H13">
         <v>5</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="1">
         <v>97.345100000000002</v>
       </c>
       <c r="J13" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>2020</v>
       </c>
@@ -1499,20 +1524,20 @@
       <c r="F14" t="s">
         <v>12</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="1">
         <v>4</v>
       </c>
       <c r="H14">
         <v>24</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="1">
         <v>26.5486</v>
       </c>
       <c r="J14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>2021</v>
       </c>
@@ -1531,20 +1556,20 @@
       <c r="F15" t="s">
         <v>12</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="1">
         <v>3</v>
       </c>
       <c r="H15">
         <v>11</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="1">
         <v>74.941199999999995</v>
       </c>
       <c r="J15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>2020</v>
       </c>
@@ -1563,20 +1588,20 @@
       <c r="F16" t="s">
         <v>12</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="1">
         <v>7</v>
       </c>
       <c r="H16">
         <v>143</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="1">
         <v>0</v>
       </c>
       <c r="J16" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>2021</v>
       </c>
@@ -1595,20 +1620,20 @@
       <c r="F17" t="s">
         <v>12</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="1">
         <v>13</v>
       </c>
       <c r="H17">
         <v>143</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="1">
         <v>0.75660000000000005</v>
       </c>
       <c r="J17" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>2020</v>
       </c>
@@ -1627,20 +1652,20 @@
       <c r="F18" t="s">
         <v>12</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="1">
         <v>1</v>
       </c>
       <c r="H18">
         <v>19</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="1">
         <v>0</v>
       </c>
       <c r="J18" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>2021</v>
       </c>
@@ -1659,20 +1684,20 @@
       <c r="F19" t="s">
         <v>12</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="1">
         <v>2</v>
       </c>
       <c r="H19">
         <v>19</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="1">
         <v>0</v>
       </c>
       <c r="J19" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>2021</v>
       </c>
@@ -1691,20 +1716,20 @@
       <c r="F20" t="s">
         <v>12</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="1">
         <v>1</v>
       </c>
       <c r="H20">
         <v>5</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="1">
         <v>96.385499999999993</v>
       </c>
       <c r="J20" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>2020</v>
       </c>
@@ -1723,20 +1748,20 @@
       <c r="F21" t="s">
         <v>12</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="1">
         <v>2</v>
       </c>
       <c r="H21">
         <v>13</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="1">
         <v>0</v>
       </c>
       <c r="J21" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>2020</v>
       </c>
@@ -1755,20 +1780,20 @@
       <c r="F22" t="s">
         <v>12</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="1">
         <v>102</v>
       </c>
       <c r="H22">
         <v>2123</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="1">
         <v>1.8914</v>
       </c>
       <c r="J22" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>2021</v>
       </c>
@@ -1787,20 +1812,20 @@
       <c r="F23" t="s">
         <v>12</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="1">
         <v>79</v>
       </c>
       <c r="H23">
         <v>2123</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="1">
         <v>5.9874000000000001</v>
       </c>
       <c r="J23" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>2020</v>
       </c>
@@ -1819,20 +1844,20 @@
       <c r="F24" t="s">
         <v>12</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="1">
         <v>3</v>
       </c>
       <c r="H24">
         <v>42</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="1">
         <v>0</v>
       </c>
       <c r="J24" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>2021</v>
       </c>
@@ -1851,20 +1876,20 @@
       <c r="F25" t="s">
         <v>12</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="1">
         <v>2</v>
       </c>
       <c r="H25">
         <v>42</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="1">
         <v>0</v>
       </c>
       <c r="J25" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>2021</v>
       </c>
@@ -1883,20 +1908,20 @@
       <c r="F26" t="s">
         <v>12</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="1">
         <v>49</v>
       </c>
       <c r="H26">
         <v>778</v>
       </c>
-      <c r="I26">
+      <c r="I26" s="1">
         <v>8.1771999999999991</v>
       </c>
       <c r="J26" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>2021</v>
       </c>
@@ -1915,20 +1940,20 @@
       <c r="F27" t="s">
         <v>12</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="1">
         <v>1</v>
       </c>
       <c r="H27">
         <v>36</v>
       </c>
-      <c r="I27">
+      <c r="I27" s="1">
         <v>0</v>
       </c>
       <c r="J27" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>2022</v>
       </c>
@@ -1947,20 +1972,20 @@
       <c r="F28" t="s">
         <v>12</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="1">
         <v>3</v>
       </c>
       <c r="H28">
         <v>36</v>
       </c>
-      <c r="I28">
+      <c r="I28" s="1">
         <v>32.533299999999997</v>
       </c>
       <c r="J28" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>2020</v>
       </c>
@@ -1979,20 +2004,20 @@
       <c r="F29" t="s">
         <v>12</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="1">
         <v>19</v>
       </c>
       <c r="H29">
         <v>152</v>
       </c>
-      <c r="I29">
+      <c r="I29" s="1">
         <v>10.3055</v>
       </c>
       <c r="J29" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>2020</v>
       </c>
@@ -2011,20 +2036,20 @@
       <c r="F30" t="s">
         <v>12</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="1">
         <v>6</v>
       </c>
       <c r="H30">
         <v>70</v>
       </c>
-      <c r="I30">
+      <c r="I30" s="1">
         <v>17.482500000000002</v>
       </c>
       <c r="J30" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>2021</v>
       </c>
@@ -2043,20 +2068,20 @@
       <c r="F31" t="s">
         <v>12</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="1">
         <v>2</v>
       </c>
       <c r="H31">
         <v>70</v>
       </c>
-      <c r="I31">
+      <c r="I31" s="1">
         <v>96.865300000000005</v>
       </c>
       <c r="J31" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>2020</v>
       </c>
@@ -2075,20 +2100,20 @@
       <c r="F32" t="s">
         <v>12</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="1">
         <v>3</v>
       </c>
       <c r="H32">
         <v>15</v>
       </c>
-      <c r="I32">
+      <c r="I32" s="1">
         <v>24.096299999999999</v>
       </c>
       <c r="J32" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>2020</v>
       </c>
@@ -2107,20 +2132,20 @@
       <c r="F33" t="s">
         <v>12</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="1">
         <v>8</v>
       </c>
       <c r="H33">
         <v>115</v>
       </c>
-      <c r="I33">
+      <c r="I33" s="1">
         <v>37.472200000000001</v>
       </c>
       <c r="J33" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>2021</v>
       </c>
@@ -2139,20 +2164,20 @@
       <c r="F34" t="s">
         <v>12</v>
       </c>
-      <c r="G34">
+      <c r="G34" s="1">
         <v>8</v>
       </c>
       <c r="H34">
         <v>115</v>
       </c>
-      <c r="I34">
+      <c r="I34" s="1">
         <v>18.072299999999998</v>
       </c>
       <c r="J34" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>2020</v>
       </c>
@@ -2171,20 +2196,20 @@
       <c r="F35" t="s">
         <v>12</v>
       </c>
-      <c r="G35">
+      <c r="G35" s="1">
         <v>1</v>
       </c>
       <c r="H35">
         <v>5</v>
       </c>
-      <c r="I35">
+      <c r="I35" s="1">
         <v>76.923000000000002</v>
       </c>
       <c r="J35" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>2020</v>
       </c>
@@ -2203,20 +2228,20 @@
       <c r="F36" t="s">
         <v>12</v>
       </c>
-      <c r="G36">
+      <c r="G36" s="1">
         <v>5</v>
       </c>
       <c r="H36">
         <v>63</v>
       </c>
-      <c r="I36">
+      <c r="I36" s="1">
         <v>11.764699999999999</v>
       </c>
       <c r="J36" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>2021</v>
       </c>
@@ -2235,20 +2260,20 @@
       <c r="F37" t="s">
         <v>12</v>
       </c>
-      <c r="G37">
+      <c r="G37" s="1">
         <v>1</v>
       </c>
       <c r="H37">
         <v>63</v>
       </c>
-      <c r="I37">
+      <c r="I37" s="1">
         <v>0</v>
       </c>
       <c r="J37" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>2020</v>
       </c>
@@ -2267,20 +2292,20 @@
       <c r="F38" t="s">
         <v>12</v>
       </c>
-      <c r="G38">
+      <c r="G38" s="1">
         <v>1</v>
       </c>
       <c r="H38">
         <v>27</v>
       </c>
-      <c r="I38">
+      <c r="I38" s="1">
         <v>16.853899999999999</v>
       </c>
       <c r="J38" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>2021</v>
       </c>
@@ -2299,20 +2324,20 @@
       <c r="F39" t="s">
         <v>12</v>
       </c>
-      <c r="G39">
+      <c r="G39" s="1">
         <v>1</v>
       </c>
       <c r="H39">
         <v>27</v>
       </c>
-      <c r="I39">
+      <c r="I39" s="1">
         <v>0</v>
       </c>
       <c r="J39" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>2021</v>
       </c>
@@ -2331,20 +2356,20 @@
       <c r="F40" t="s">
         <v>12</v>
       </c>
-      <c r="G40">
+      <c r="G40" s="1">
         <v>2</v>
       </c>
       <c r="H40">
         <v>17</v>
       </c>
-      <c r="I40">
+      <c r="I40" s="1">
         <v>0</v>
       </c>
       <c r="J40" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>2021</v>
       </c>
@@ -2363,20 +2388,20 @@
       <c r="F41" t="s">
         <v>12</v>
       </c>
-      <c r="G41">
+      <c r="G41" s="1">
         <v>10</v>
       </c>
       <c r="H41">
         <v>115</v>
       </c>
-      <c r="I41">
+      <c r="I41" s="1">
         <v>6.4363999999999999</v>
       </c>
       <c r="J41" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>2020</v>
       </c>
@@ -2395,20 +2420,20 @@
       <c r="F42" t="s">
         <v>12</v>
       </c>
-      <c r="G42">
+      <c r="G42" s="1">
         <v>1</v>
       </c>
       <c r="H42">
         <v>53</v>
       </c>
-      <c r="I42">
+      <c r="I42" s="1">
         <v>39.734999999999999</v>
       </c>
       <c r="J42" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>2021</v>
       </c>
@@ -2427,20 +2452,20 @@
       <c r="F43" t="s">
         <v>12</v>
       </c>
-      <c r="G43">
+      <c r="G43" s="1">
         <v>1</v>
       </c>
       <c r="H43">
         <v>53</v>
       </c>
-      <c r="I43">
+      <c r="I43" s="1">
         <v>63.218299999999999</v>
       </c>
       <c r="J43" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>2022</v>
       </c>
@@ -2459,20 +2484,20 @@
       <c r="F44" t="s">
         <v>12</v>
       </c>
-      <c r="G44">
+      <c r="G44" s="1">
         <v>1</v>
       </c>
       <c r="H44">
         <v>53</v>
       </c>
-      <c r="I44">
+      <c r="I44" s="1">
         <v>37.267000000000003</v>
       </c>
       <c r="J44" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>2021</v>
       </c>
@@ -2491,20 +2516,20 @@
       <c r="F45" t="s">
         <v>12</v>
       </c>
-      <c r="G45">
+      <c r="G45" s="1">
         <v>1</v>
       </c>
       <c r="H45">
         <v>12</v>
       </c>
-      <c r="I45">
+      <c r="I45" s="1">
         <v>0</v>
       </c>
       <c r="J45" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>2020</v>
       </c>
@@ -2523,20 +2548,20 @@
       <c r="F46" t="s">
         <v>12</v>
       </c>
-      <c r="G46">
+      <c r="G46" s="1">
         <v>1</v>
       </c>
       <c r="H46">
         <v>24</v>
       </c>
-      <c r="I46">
+      <c r="I46" s="1">
         <v>36.809800000000003</v>
       </c>
       <c r="J46" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>2021</v>
       </c>
@@ -2555,20 +2580,20 @@
       <c r="F47" t="s">
         <v>12</v>
       </c>
-      <c r="G47">
+      <c r="G47" s="1">
         <v>1</v>
       </c>
       <c r="H47">
         <v>24</v>
       </c>
-      <c r="I47">
+      <c r="I47" s="1">
         <v>8.4847999999999999</v>
       </c>
       <c r="J47" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>2020</v>
       </c>
@@ -2587,20 +2612,20 @@
       <c r="F48" t="s">
         <v>12</v>
       </c>
-      <c r="G48">
+      <c r="G48" s="1">
         <v>1</v>
       </c>
       <c r="H48">
         <v>20</v>
       </c>
-      <c r="I48">
+      <c r="I48" s="1">
         <v>0</v>
       </c>
       <c r="J48" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>2021</v>
       </c>
@@ -2619,20 +2644,20 @@
       <c r="F49" t="s">
         <v>12</v>
       </c>
-      <c r="G49">
+      <c r="G49" s="1">
         <v>1</v>
       </c>
       <c r="H49">
         <v>20</v>
       </c>
-      <c r="I49">
+      <c r="I49" s="1">
         <v>0</v>
       </c>
       <c r="J49" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>2020</v>
       </c>
@@ -2651,20 +2676,20 @@
       <c r="F50" t="s">
         <v>12</v>
       </c>
-      <c r="G50">
+      <c r="G50" s="1">
         <v>1</v>
       </c>
       <c r="H50">
         <v>12</v>
       </c>
-      <c r="I50">
+      <c r="I50" s="1">
         <v>18.633500000000002</v>
       </c>
       <c r="J50" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>2020</v>
       </c>
@@ -2683,20 +2708,20 @@
       <c r="F51" t="s">
         <v>12</v>
       </c>
-      <c r="G51">
+      <c r="G51" s="1">
         <v>4</v>
       </c>
       <c r="H51">
         <v>60</v>
       </c>
-      <c r="I51">
+      <c r="I51" s="1">
         <v>16.871200000000002</v>
       </c>
       <c r="J51" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>2021</v>
       </c>
@@ -2715,20 +2740,20 @@
       <c r="F52" t="s">
         <v>12</v>
       </c>
-      <c r="G52">
+      <c r="G52" s="1">
         <v>2</v>
       </c>
       <c r="H52">
         <v>60</v>
       </c>
-      <c r="I52">
+      <c r="I52" s="1">
         <v>0</v>
       </c>
       <c r="J52" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>2020</v>
       </c>
@@ -2747,20 +2772,20 @@
       <c r="F53" t="s">
         <v>12</v>
       </c>
-      <c r="G53">
+      <c r="G53" s="1">
         <v>1</v>
       </c>
       <c r="H53">
         <v>17</v>
       </c>
-      <c r="I53">
+      <c r="I53" s="1">
         <v>0</v>
       </c>
       <c r="J53" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>2021</v>
       </c>
@@ -2779,20 +2804,20 @@
       <c r="F54" t="s">
         <v>12</v>
       </c>
-      <c r="G54">
+      <c r="G54" s="1">
         <v>1</v>
       </c>
       <c r="H54">
         <v>17</v>
       </c>
-      <c r="I54">
+      <c r="I54" s="1">
         <v>0</v>
       </c>
       <c r="J54" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>2020</v>
       </c>
@@ -2811,20 +2836,20 @@
       <c r="F55" t="s">
         <v>12</v>
       </c>
-      <c r="G55">
+      <c r="G55" s="1">
         <v>2</v>
       </c>
       <c r="H55">
         <v>17</v>
       </c>
-      <c r="I55">
+      <c r="I55" s="1">
         <v>50</v>
       </c>
       <c r="J55" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>2021</v>
       </c>
@@ -2843,20 +2868,20 @@
       <c r="F56" t="s">
         <v>12</v>
       </c>
-      <c r="G56">
+      <c r="G56" s="1">
         <v>1</v>
       </c>
       <c r="H56">
         <v>17</v>
       </c>
-      <c r="I56">
+      <c r="I56" s="1">
         <v>0</v>
       </c>
       <c r="J56" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>2020</v>
       </c>
@@ -2875,20 +2900,20 @@
       <c r="F57" t="s">
         <v>12</v>
       </c>
-      <c r="G57">
+      <c r="G57" s="1">
         <v>1</v>
       </c>
       <c r="H57">
         <v>15</v>
       </c>
-      <c r="I57">
+      <c r="I57" s="1">
         <v>0</v>
       </c>
       <c r="J57" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>2021</v>
       </c>
@@ -2907,20 +2932,20 @@
       <c r="F58" t="s">
         <v>12</v>
       </c>
-      <c r="G58">
+      <c r="G58" s="1">
         <v>3</v>
       </c>
       <c r="H58">
         <v>30</v>
       </c>
-      <c r="I58">
+      <c r="I58" s="1">
         <v>3.6175999999999999</v>
       </c>
       <c r="J58" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>2020</v>
       </c>
@@ -2939,20 +2964,20 @@
       <c r="F59" t="s">
         <v>12</v>
       </c>
-      <c r="G59">
+      <c r="G59" s="1">
         <v>2</v>
       </c>
       <c r="H59">
         <v>50</v>
       </c>
-      <c r="I59">
+      <c r="I59" s="1">
         <v>0</v>
       </c>
       <c r="J59" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>2022</v>
       </c>
@@ -2971,20 +2996,20 @@
       <c r="F60" t="s">
         <v>12</v>
       </c>
-      <c r="G60">
+      <c r="G60" s="1">
         <v>2</v>
       </c>
       <c r="H60">
         <v>50</v>
       </c>
-      <c r="I60">
+      <c r="I60" s="1">
         <v>0</v>
       </c>
       <c r="J60" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>2020</v>
       </c>
@@ -3003,20 +3028,20 @@
       <c r="F61" t="s">
         <v>12</v>
       </c>
-      <c r="G61">
+      <c r="G61" s="1">
         <v>2</v>
       </c>
       <c r="H61">
         <v>50</v>
       </c>
-      <c r="I61">
+      <c r="I61" s="1">
         <v>0</v>
       </c>
       <c r="J61" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>2022</v>
       </c>
@@ -3035,20 +3060,20 @@
       <c r="F62" t="s">
         <v>12</v>
       </c>
-      <c r="G62">
+      <c r="G62" s="1">
         <v>2</v>
       </c>
       <c r="H62">
         <v>50</v>
       </c>
-      <c r="I62">
+      <c r="I62" s="1">
         <v>0</v>
       </c>
       <c r="J62" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>2020</v>
       </c>
@@ -3067,20 +3092,20 @@
       <c r="F63" t="s">
         <v>12</v>
       </c>
-      <c r="G63">
+      <c r="G63" s="1">
         <v>1</v>
       </c>
       <c r="H63">
         <v>25</v>
       </c>
-      <c r="I63">
+      <c r="I63" s="1">
         <v>0</v>
       </c>
       <c r="J63" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>2022</v>
       </c>
@@ -3099,20 +3124,20 @@
       <c r="F64" t="s">
         <v>12</v>
       </c>
-      <c r="G64">
+      <c r="G64" s="1">
         <v>1</v>
       </c>
       <c r="H64">
         <v>25</v>
       </c>
-      <c r="I64">
+      <c r="I64" s="1">
         <v>0</v>
       </c>
       <c r="J64" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>2021</v>
       </c>
@@ -3131,20 +3156,20 @@
       <c r="F65" t="s">
         <v>12</v>
       </c>
-      <c r="G65">
+      <c r="G65" s="1">
         <v>4</v>
       </c>
       <c r="H65">
         <v>48</v>
       </c>
-      <c r="I65">
+      <c r="I65" s="1">
         <v>66.2791</v>
       </c>
       <c r="J65" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>2020</v>
       </c>
@@ -3163,20 +3188,20 @@
       <c r="F66" t="s">
         <v>12</v>
       </c>
-      <c r="G66">
+      <c r="G66" s="1">
         <v>2</v>
       </c>
       <c r="H66">
         <v>50</v>
       </c>
-      <c r="I66">
+      <c r="I66" s="1">
         <v>0</v>
       </c>
       <c r="J66" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>2022</v>
       </c>
@@ -3195,20 +3220,20 @@
       <c r="F67" t="s">
         <v>12</v>
       </c>
-      <c r="G67">
+      <c r="G67" s="1">
         <v>2</v>
       </c>
       <c r="H67">
         <v>50</v>
       </c>
-      <c r="I67">
+      <c r="I67" s="1">
         <v>0</v>
       </c>
       <c r="J67" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>2020</v>
       </c>
@@ -3227,20 +3252,20 @@
       <c r="F68" t="s">
         <v>12</v>
       </c>
-      <c r="G68">
+      <c r="G68" s="1">
         <v>1</v>
       </c>
       <c r="H68">
         <v>12</v>
       </c>
-      <c r="I68">
+      <c r="I68" s="1">
         <v>31.3432</v>
       </c>
       <c r="J68" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>2020</v>
       </c>
@@ -3259,20 +3284,20 @@
       <c r="F69" t="s">
         <v>12</v>
       </c>
-      <c r="G69">
+      <c r="G69" s="1">
         <v>1</v>
       </c>
       <c r="H69">
         <v>15</v>
       </c>
-      <c r="I69">
+      <c r="I69" s="1">
         <v>0</v>
       </c>
       <c r="J69" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>2020</v>
       </c>
@@ -3291,20 +3316,20 @@
       <c r="F70" t="s">
         <v>12</v>
       </c>
-      <c r="G70">
+      <c r="G70" s="1">
         <v>9</v>
       </c>
       <c r="H70">
         <v>134</v>
       </c>
-      <c r="I70">
+      <c r="I70" s="1">
         <v>3.0964999999999998</v>
       </c>
       <c r="J70" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>2021</v>
       </c>
@@ -3323,20 +3348,20 @@
       <c r="F71" t="s">
         <v>12</v>
       </c>
-      <c r="G71">
+      <c r="G71" s="1">
         <v>5</v>
       </c>
       <c r="H71">
         <v>134</v>
       </c>
-      <c r="I71">
+      <c r="I71" s="1">
         <v>0.95240000000000002</v>
       </c>
       <c r="J71" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>2020</v>
       </c>
@@ -3355,20 +3380,20 @@
       <c r="F72" t="s">
         <v>12</v>
       </c>
-      <c r="G72">
+      <c r="G72" s="1">
         <v>1</v>
       </c>
       <c r="H72">
         <v>12</v>
       </c>
-      <c r="I72">
+      <c r="I72" s="1">
         <v>0</v>
       </c>
       <c r="J72" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>2020</v>
       </c>
@@ -3387,13 +3412,13 @@
       <c r="F73" t="s">
         <v>12</v>
       </c>
-      <c r="G73">
+      <c r="G73" s="1">
         <v>2</v>
       </c>
       <c r="H73">
         <v>30</v>
       </c>
-      <c r="I73">
+      <c r="I73" s="1">
         <v>0</v>
       </c>
       <c r="J73" t="s">
